--- a/medicine/Sexualité et sexologie/Saison_1_de_Maison_close/Saison_1_de_Maison_close.xlsx
+++ b/medicine/Sexualité et sexologie/Saison_1_de_Maison_close/Saison_1_de_Maison_close.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette page présente la liste des épisodes de la première saison de la série télévisée Maison close.
@@ -514,16 +526,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Anne Charrier : Véra
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Anne Charrier : Véra
 Valérie Karsenti : Hortense Gaillac
 Jemima West : Rosalie Tranier, dite Rose
 Catherine Hosmalin : Marguerite Fourchon
 Clémence Bretécher : Valentine
 Deborah Grall : Bertha
-Blandine Bellavoir : Angèle
-Acteurs récurrents
-Dany Veríssimo-Petit : Camélia
+Blandine Bellavoir : Angèle</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saison_1_de_Maison_close</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saison_1_de_Maison_close</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dany Veríssimo-Petit : Camélia
 Sébastien Libessart : commissaire divisionnaire Torcy
 Nicolas Briançon : Pierre Gaillac
 Dan Herzberg : Gaston Lupin
@@ -538,31 +589,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Saison_1_de_Maison_close</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Saison_1_de_Maison_close</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
